--- a/C语言课程讲义_笔记/B站鹏哥/2024_4_18 P_23指针.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_4_18 P_23指针.xlsx
@@ -13,6 +13,19 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>当用struct Stu这个类型创建struct Stu s这个变量时，才占据内存空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct Stu与struct Stu s是蓝图与实际房屋的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,6 +345,82 @@
         <a:xfrm>
           <a:off x="952500" y="37099875"/>
           <a:ext cx="11961905" cy="5095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160306</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="42710100"/>
+          <a:ext cx="12952381" cy="6066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>275250</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>161395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14420850" y="45815250"/>
+          <a:ext cx="7800000" cy="4238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -630,14 +719,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="V262:V265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="W233" sqref="W233"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="AC180" sqref="AC180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="262" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V262" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V265" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
